--- a/OnBoard/output/trust/bio/Bio_Trust_12.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_12.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q371"/>
+  <dimension ref="A1:Q324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16876,12 +16876,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F324">
@@ -16891,2461 +16891,17 @@
         <v>1</v>
       </c>
       <c r="H324">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="I324">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F325">
-        <v>1</v>
-      </c>
-      <c r="G325">
-        <v>1</v>
-      </c>
-      <c r="H325">
-        <v>240</v>
-      </c>
-      <c r="I325">
-        <v>132</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F326">
-        <v>1</v>
-      </c>
-      <c r="G326">
-        <v>1</v>
-      </c>
-      <c r="H326">
-        <v>183</v>
-      </c>
-      <c r="I326">
-        <v>56</v>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F327">
-        <v>1</v>
-      </c>
-      <c r="G327">
-        <v>1</v>
-      </c>
-      <c r="H327">
-        <v>244</v>
-      </c>
-      <c r="I327">
-        <v>132</v>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F328">
-        <v>1</v>
-      </c>
-      <c r="G328">
-        <v>1</v>
-      </c>
-      <c r="H328">
-        <v>247</v>
-      </c>
-      <c r="I328">
-        <v>156</v>
-      </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F329">
-        <v>1</v>
-      </c>
-      <c r="G329">
-        <v>1</v>
-      </c>
-      <c r="H329">
-        <v>181</v>
-      </c>
-      <c r="I329">
-        <v>49</v>
-      </c>
-      <c r="J329" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F330">
-        <v>1</v>
-      </c>
-      <c r="G330">
-        <v>1</v>
-      </c>
-      <c r="H330">
-        <v>242</v>
-      </c>
-      <c r="I330">
-        <v>130</v>
-      </c>
-      <c r="J330" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F331">
-        <v>1</v>
-      </c>
-      <c r="G331">
-        <v>1</v>
-      </c>
-      <c r="H331">
-        <v>174</v>
-      </c>
-      <c r="I331">
-        <v>52</v>
-      </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-      <c r="H332">
-        <v>173</v>
-      </c>
-      <c r="I332">
-        <v>43</v>
-      </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F333">
-        <v>1</v>
-      </c>
-      <c r="G333">
-        <v>1</v>
-      </c>
-      <c r="H333">
-        <v>172</v>
-      </c>
-      <c r="I333">
-        <v>46</v>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F334">
-        <v>1</v>
-      </c>
-      <c r="G334">
-        <v>1</v>
-      </c>
-      <c r="H334">
-        <v>185</v>
-      </c>
-      <c r="I334">
-        <v>59</v>
-      </c>
-      <c r="J334" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F335">
-        <v>1</v>
-      </c>
-      <c r="G335">
-        <v>1</v>
-      </c>
-      <c r="H335">
-        <v>241</v>
-      </c>
-      <c r="I335">
-        <v>137</v>
-      </c>
-      <c r="J335" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F336">
-        <v>1</v>
-      </c>
-      <c r="G336">
-        <v>1</v>
-      </c>
-      <c r="H336">
-        <v>159</v>
-      </c>
-      <c r="I336">
-        <v>36</v>
-      </c>
-      <c r="J336" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F337">
-        <v>1</v>
-      </c>
-      <c r="G337">
-        <v>1</v>
-      </c>
-      <c r="H337">
-        <v>153</v>
-      </c>
-      <c r="I337">
-        <v>37</v>
-      </c>
-      <c r="J337" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F338">
-        <v>1</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-      <c r="H338">
-        <v>160</v>
-      </c>
-      <c r="I338">
-        <v>38</v>
-      </c>
-      <c r="J338" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F339">
-        <v>1</v>
-      </c>
-      <c r="G339">
-        <v>1</v>
-      </c>
-      <c r="H339">
-        <v>181</v>
-      </c>
-      <c r="I339">
-        <v>51</v>
-      </c>
-      <c r="J339" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F340">
-        <v>1</v>
-      </c>
-      <c r="G340">
-        <v>1</v>
-      </c>
-      <c r="H340">
-        <v>230</v>
-      </c>
-      <c r="I340">
-        <v>128</v>
-      </c>
-      <c r="J340" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F341">
-        <v>1</v>
-      </c>
-      <c r="G341">
-        <v>1</v>
-      </c>
-      <c r="H341">
-        <v>241</v>
-      </c>
-      <c r="I341">
-        <v>134</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F342">
-        <v>1</v>
-      </c>
-      <c r="G342">
-        <v>1</v>
-      </c>
-      <c r="H342">
-        <v>168</v>
-      </c>
-      <c r="I342">
-        <v>47</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F343">
-        <v>1</v>
-      </c>
-      <c r="G343">
-        <v>1</v>
-      </c>
-      <c r="H343">
-        <v>240</v>
-      </c>
-      <c r="I343">
-        <v>118</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F344">
-        <v>1</v>
-      </c>
-      <c r="G344">
-        <v>1</v>
-      </c>
-      <c r="H344">
-        <v>232</v>
-      </c>
-      <c r="I344">
-        <v>114</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F345">
-        <v>1</v>
-      </c>
-      <c r="G345">
-        <v>1</v>
-      </c>
-      <c r="H345">
-        <v>230</v>
-      </c>
-      <c r="I345">
-        <v>125</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F346">
-        <v>1</v>
-      </c>
-      <c r="G346">
-        <v>1</v>
-      </c>
-      <c r="H346">
-        <v>246</v>
-      </c>
-      <c r="I346">
-        <v>145</v>
-      </c>
-      <c r="J346" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F347">
-        <v>1</v>
-      </c>
-      <c r="G347">
-        <v>1</v>
-      </c>
-      <c r="H347">
-        <v>185</v>
-      </c>
-      <c r="I347">
-        <v>63</v>
-      </c>
-      <c r="J347" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F348">
-        <v>1</v>
-      </c>
-      <c r="G348">
-        <v>1</v>
-      </c>
-      <c r="H348">
-        <v>166</v>
-      </c>
-      <c r="I348">
-        <v>43</v>
-      </c>
-      <c r="J348" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F349">
-        <v>1</v>
-      </c>
-      <c r="G349">
-        <v>1</v>
-      </c>
-      <c r="H349">
-        <v>170</v>
-      </c>
-      <c r="I349">
-        <v>45</v>
-      </c>
-      <c r="J349" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F350">
-        <v>1</v>
-      </c>
-      <c r="G350">
-        <v>1</v>
-      </c>
-      <c r="H350">
-        <v>178</v>
-      </c>
-      <c r="I350">
-        <v>51</v>
-      </c>
-      <c r="J350" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F351">
-        <v>1</v>
-      </c>
-      <c r="G351">
-        <v>1</v>
-      </c>
-      <c r="H351">
-        <v>167</v>
-      </c>
-      <c r="I351">
-        <v>48</v>
-      </c>
-      <c r="J351" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E352" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F352">
-        <v>1</v>
-      </c>
-      <c r="G352">
-        <v>1</v>
-      </c>
-      <c r="H352">
-        <v>170</v>
-      </c>
-      <c r="I352">
-        <v>49</v>
-      </c>
-      <c r="J352" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F353">
-        <v>1</v>
-      </c>
-      <c r="G353">
-        <v>1</v>
-      </c>
-      <c r="H353">
-        <v>193</v>
-      </c>
-      <c r="I353">
-        <v>68</v>
-      </c>
-      <c r="J353" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F354">
-        <v>1</v>
-      </c>
-      <c r="G354">
-        <v>1</v>
-      </c>
-      <c r="H354">
-        <v>192</v>
-      </c>
-      <c r="I354">
-        <v>69</v>
-      </c>
-      <c r="J354" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F355">
-        <v>1</v>
-      </c>
-      <c r="G355">
-        <v>1</v>
-      </c>
-      <c r="H355">
-        <v>262</v>
-      </c>
-      <c r="I355">
-        <v>167</v>
-      </c>
-      <c r="J355" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F356">
-        <v>1</v>
-      </c>
-      <c r="G356">
-        <v>1</v>
-      </c>
-      <c r="H356">
-        <v>231</v>
-      </c>
-      <c r="I356">
-        <v>105</v>
-      </c>
-      <c r="J356" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F357">
-        <v>1</v>
-      </c>
-      <c r="G357">
-        <v>1</v>
-      </c>
-      <c r="H357">
-        <v>184</v>
-      </c>
-      <c r="I357">
-        <v>52</v>
-      </c>
-      <c r="J357" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F358">
-        <v>1</v>
-      </c>
-      <c r="G358">
-        <v>1</v>
-      </c>
-      <c r="H358">
-        <v>165</v>
-      </c>
-      <c r="I358">
-        <v>45</v>
-      </c>
-      <c r="J358" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F359">
-        <v>1</v>
-      </c>
-      <c r="G359">
-        <v>1</v>
-      </c>
-      <c r="H359">
-        <v>168</v>
-      </c>
-      <c r="I359">
-        <v>43</v>
-      </c>
-      <c r="J359" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F360">
-        <v>1</v>
-      </c>
-      <c r="G360">
-        <v>1</v>
-      </c>
-      <c r="H360">
-        <v>236</v>
-      </c>
-      <c r="I360">
-        <v>108</v>
-      </c>
-      <c r="J360" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F361">
-        <v>1</v>
-      </c>
-      <c r="G361">
-        <v>1</v>
-      </c>
-      <c r="H361">
-        <v>185</v>
-      </c>
-      <c r="I361">
-        <v>55</v>
-      </c>
-      <c r="J361" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F362">
-        <v>1</v>
-      </c>
-      <c r="G362">
-        <v>1</v>
-      </c>
-      <c r="H362">
-        <v>248</v>
-      </c>
-      <c r="I362">
-        <v>146</v>
-      </c>
-      <c r="J362" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F363">
-        <v>1</v>
-      </c>
-      <c r="G363">
-        <v>1</v>
-      </c>
-      <c r="H363">
-        <v>240</v>
-      </c>
-      <c r="I363">
-        <v>117</v>
-      </c>
-      <c r="J363" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
-        </is>
-      </c>
-      <c r="L363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F364">
-        <v>1</v>
-      </c>
-      <c r="G364">
-        <v>1</v>
-      </c>
-      <c r="H364">
-        <v>180</v>
-      </c>
-      <c r="I364">
-        <v>44</v>
-      </c>
-      <c r="J364" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F365">
-        <v>1</v>
-      </c>
-      <c r="G365">
-        <v>1</v>
-      </c>
-      <c r="H365">
-        <v>164</v>
-      </c>
-      <c r="I365">
-        <v>46</v>
-      </c>
-      <c r="J365" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F366">
-        <v>1</v>
-      </c>
-      <c r="G366">
-        <v>1</v>
-      </c>
-      <c r="H366">
-        <v>167</v>
-      </c>
-      <c r="I366">
-        <v>54</v>
-      </c>
-      <c r="J366" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F367">
-        <v>1</v>
-      </c>
-      <c r="G367">
-        <v>1</v>
-      </c>
-      <c r="H367">
-        <v>175</v>
-      </c>
-      <c r="I367">
-        <v>48</v>
-      </c>
-      <c r="J367" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
-        </is>
-      </c>
-      <c r="L367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F368">
-        <v>1</v>
-      </c>
-      <c r="G368">
-        <v>1</v>
-      </c>
-      <c r="H368">
-        <v>176</v>
-      </c>
-      <c r="I368">
-        <v>48</v>
-      </c>
-      <c r="J368" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F369">
-        <v>1</v>
-      </c>
-      <c r="G369">
-        <v>1</v>
-      </c>
-      <c r="H369">
-        <v>215</v>
-      </c>
-      <c r="I369">
-        <v>80</v>
-      </c>
-      <c r="J369" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
-        </is>
-      </c>
-      <c r="L369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F370">
-        <v>1</v>
-      </c>
-      <c r="G370">
-        <v>1</v>
-      </c>
-      <c r="H370">
-        <v>239</v>
-      </c>
-      <c r="I370">
-        <v>124</v>
-      </c>
-      <c r="J370" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
-        </is>
-      </c>
-      <c r="L370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F371">
-        <v>1</v>
-      </c>
-      <c r="G371">
-        <v>1</v>
-      </c>
-      <c r="H371">
-        <v>30</v>
-      </c>
-      <c r="I371">
-        <v>13</v>
-      </c>
-      <c r="J371" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L371">
         <v>0</v>
       </c>
     </row>
